--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.011321-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.011321-2.xlsx_with_dialog_acts.xlsx
@@ -601,12 +601,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2239,12 +2239,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2533,12 +2533,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2659,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2743,12 +2743,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2869,12 +2869,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4129,12 +4129,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4507,12 +4507,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4591,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4633,12 +4633,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4927,12 +4927,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5221,12 +5221,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5263,12 +5263,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5389,12 +5389,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5557,12 +5557,12 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5599,12 +5599,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5683,12 +5683,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5813,12 +5813,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6149,12 +6149,12 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6191,12 +6191,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6315,12 +6315,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6645,12 +6645,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6729,12 +6729,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6939,12 +6939,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7065,12 +7065,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7149,12 +7149,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7359,12 +7359,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7737,12 +7737,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8407,12 +8407,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8449,12 +8449,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8533,12 +8533,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8699,12 +8699,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8951,12 +8951,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9161,12 +9161,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9245,12 +9245,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9371,12 +9371,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9539,12 +9539,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9749,12 +9749,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10043,12 +10043,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10379,12 +10379,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11009,12 +11009,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11219,12 +11219,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11807,12 +11807,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12007,12 +12007,12 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12487,12 +12487,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12527,12 +12527,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12687,12 +12687,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13087,12 +13087,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13207,12 +13207,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13367,12 +13367,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13687,12 +13687,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13727,12 +13727,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14047,12 +14047,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14531,12 +14531,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14729,12 +14729,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14809,12 +14809,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17009,12 +17009,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17209,12 +17209,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17649,12 +17649,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17929,12 +17929,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17969,12 +17969,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18049,12 +18049,12 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18249,12 +18249,12 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18409,12 +18409,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18965,12 +18965,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19005,12 +19005,12 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19085,12 +19085,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19485,12 +19485,12 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19805,12 +19805,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19885,12 +19885,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20045,12 +20045,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20365,12 +20365,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20525,12 +20525,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20685,12 +20685,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20725,12 +20725,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21085,12 +21085,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21125,12 +21125,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21485,12 +21485,12 @@
       <c r="H513" t="inlineStr"/>
       <c r="I513" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21763,12 +21763,12 @@
       <c r="H520" t="inlineStr"/>
       <c r="I520" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21963,12 +21963,12 @@
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22003,12 +22003,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
